--- a/doc/外部設計/04_外部設計書(日付詳細画面)_チーム名.xlsx
+++ b/doc/外部設計/04_外部設計書(日付詳細画面)_チーム名.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3649028-9DB8-4C70-8273-FEE7A62CC918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6866EB-9D22-4E6D-8133-09F6880885FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">外部設計書!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -185,22 +196,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ロード時に以下の処理を実行する。</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>home</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -226,63 +221,6 @@
   </si>
   <si>
     <t>image</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4.「年月表示」の脇にある「＜」をタップすると、前の月のカレンダーを表示。「＞」をタップすると、次の月のカレンダーを表示。</t>
-    <rPh sb="3" eb="5">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5.「追加ボタン」をタップすると、予定登録画面に遷移。</t>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="17" eb="23">
-      <t>ヨテイトウロクガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>6.カレンダーの「日にちボタン」をタップすると、予定登録画面に遷移。</t>
-    <rPh sb="9" eb="10">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="24" eb="30">
-      <t>ヨテイトウロクガメン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -337,6 +275,169 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「４．日付表示」</t>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「６. カレンダー画面でタップした予定の予定IDをもとに、予定マスタから予定名と時間を取得して表示する」</t>
+    <rPh sb="40" eb="42">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「５.追加ボタンをタップした時」</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カレンダー登録画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>plan_detail</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>追加ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>予定詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>limk</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>plans</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>plan_name,plan_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>予定がない場合は「予定がありません」と表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日付詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>片平、久保</t>
+    <rPh sb="0" eb="2">
+      <t>カタヒラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クボ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>syuudeen</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データを加工して表示,「予定がありません」の場合は画面型はlabelで表示する。</t>
+    <rPh sb="12" eb="14">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ガメンガタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -713,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -832,6 +933,9 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -854,16 +958,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>39202</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>149016</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>58252</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -892,7 +996,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3644900" y="1123950"/>
+          <a:off x="406400" y="1619250"/>
           <a:ext cx="3252302" cy="3787566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -904,39 +1008,582 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F80746-DADD-4EEC-8ABF-A8B043F52DDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4483100" y="1689100"/>
+          <a:ext cx="3390900" cy="3854450"/>
+          <a:chOff x="4552950" y="1638300"/>
+          <a:chExt cx="3149600" cy="3854450"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60290895-B02E-44C0-9B9D-C56B0CCA5303}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4552950" y="1638300"/>
+            <a:ext cx="3149600" cy="3854450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="グラフィックス 5" descr="ホーム 単色塗りつぶし">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BB3ADD-DAFD-42CC-ABDB-4D00FF1D6689}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4654550" y="1638300"/>
+            <a:ext cx="558800" cy="558800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="グラフィックス 7" descr="路面電車 単色塗りつぶし">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961BF055-A3DB-4195-8691-19C95C75B2BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5803900" y="1644650"/>
+            <a:ext cx="590550" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="グラフィックス 14" descr="ハンガーガー形のメニュー アイコン 単色塗りつぶし">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E7CB7E-ED83-4C78-9268-90D0F81552B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7010400" y="1638300"/>
+            <a:ext cx="571500" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="グラフィックス 16" descr="追加 単色塗りつぶし">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83D6ECE-22B0-42F7-BC39-A7A9FE24D300}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7239000" y="2432050"/>
+            <a:ext cx="298450" cy="298450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキスト ボックス 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7CB9BD-02BC-49DD-8F22-65A7B225C3BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5511800" y="2482850"/>
+            <a:ext cx="1270000" cy="292100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>YY</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>XX</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>日</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B32913F-440D-48E6-8410-05F9B7992847}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5270500" y="3035300"/>
+            <a:ext cx="1746250" cy="349250"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>予定名・時間</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F54E2A-9734-4466-8E0C-299988751D79}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5276850" y="3778250"/>
+            <a:ext cx="1746250" cy="349250"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>予定名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>予定名・時間</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1264CC47-DAB8-4020-B5E3-1E01EBD68A3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5289550" y="4565650"/>
+            <a:ext cx="1746250" cy="349250"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>予定名・時間</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35081429-E984-3272-BF9F-0A060E7CE7B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEDC7A7-A491-4F97-AB25-A2DA4BC48EA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1206500"/>
-          <a:ext cx="387350" cy="387350"/>
+          <a:off x="4248150" y="1866900"/>
+          <a:ext cx="374650" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -950,27 +1597,21 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>１</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -978,39 +1619,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EE6B12-A1E2-4B39-9440-FB9644EFE9DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE32B707-9624-488D-A17A-45E2BD7AF278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4616450" y="1168400"/>
-          <a:ext cx="387350" cy="387350"/>
+          <a:off x="5353050" y="1835150"/>
+          <a:ext cx="374650" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1024,30 +1671,21 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>２</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1055,39 +1693,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837BFCF3-6CC3-4D44-BC97-3B847BCADC15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA502289-292C-4298-82C5-686259583F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5975350" y="1187450"/>
-          <a:ext cx="387350" cy="387350"/>
+          <a:off x="6445250" y="1873250"/>
+          <a:ext cx="374650" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1101,27 +1745,21 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>３</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1129,39 +1767,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62FFCAC-C779-4DDF-8FAF-DF4822FE4BE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0673465B-DE20-4F2C-8B2F-C49F57ED114E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4070350" y="1638300"/>
-          <a:ext cx="387350" cy="387350"/>
+          <a:off x="5048250" y="2495550"/>
+          <a:ext cx="374650" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1175,27 +1819,21 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>４</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1204,38 +1842,44 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC285C77-E7B3-4918-9F09-AFB1F8A2A80F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77B4452-E8A0-42A2-B54D-C3714ACDFD59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6826250" y="1676400"/>
-          <a:ext cx="387350" cy="387350"/>
+          <a:off x="6743700" y="2533650"/>
+          <a:ext cx="374650" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1249,27 +1893,21 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>５</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1277,39 +1915,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AA22B6-9B80-4C12-817A-C60E94DFFB58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E349ABBF-A183-4BC1-822A-8CFD24072B9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3327400" y="3054350"/>
-          <a:ext cx="387350" cy="387350"/>
+          <a:off x="4743450" y="3079750"/>
+          <a:ext cx="374650" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1323,16 +1967,15 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1342,6 +1985,207 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861D4FCD-09F4-459B-84A2-3F321D2D271A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4749800" y="3886200"/>
+          <a:ext cx="374650" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>６</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE3142C-4873-4075-8B94-EE449C0CB3FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="4660900"/>
+          <a:ext cx="374650" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>６</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CC7641-325E-40B9-AA2E-546EEF6531F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2082800" y="3321050"/>
+          <a:ext cx="2330450" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1670,15 +2514,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="10" width="3.6328125" style="1"/>
     <col min="11" max="11" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="3.6328125" style="1"/>
+    <col min="12" max="28" width="3.6328125" style="1"/>
+    <col min="29" max="29" width="7.08984375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -1699,7 +2545,9 @@
       </c>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="N1" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
@@ -1712,7 +2560,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
+      <c r="Y1" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="Z1" s="28"/>
       <c r="AA1" s="28"/>
       <c r="AB1" s="28"/>
@@ -1747,7 +2597,9 @@
       </c>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="N2" s="37" t="s">
+        <v>57</v>
+      </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
@@ -1760,7 +2612,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="Y2" s="42">
+        <v>45086</v>
+      </c>
       <c r="Z2" s="37"/>
       <c r="AA2" s="37"/>
       <c r="AB2" s="37"/>
@@ -3385,8 +4239,8 @@
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>22</v>
+      <c r="E43" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3429,9 +4283,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -3473,7 +4325,9 @@
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -3516,7 +4370,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -3599,9 +4453,7 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="E48" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -3682,7 +4534,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="E50" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -3724,7 +4576,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="E51" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -3806,7 +4658,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="E53" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -3888,7 +4740,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="E55" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -3930,7 +4782,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="E56" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -3972,7 +4824,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="E57" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -4014,7 +4866,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="E58" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -4056,7 +4908,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="E59" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -4137,7 +4989,9 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -4177,7 +5031,9 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="E62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -4897,19 +5753,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
       <c r="H79" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -4947,19 +5803,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
@@ -4997,19 +5853,19 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -5043,19 +5899,29 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="C82" s="13">
+        <v>4</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
+      <c r="L82" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
+      <c r="O82" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
@@ -5085,16 +5951,24 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="13">
+        <v>5</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
+      <c r="L83" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14"/>
@@ -5127,19 +6001,29 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
+      <c r="C84" s="13">
+        <v>6</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
+      <c r="L84" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
+      <c r="O84" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>
@@ -5147,14 +6031,20 @@
       <c r="T84" s="17"/>
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
-      <c r="W84" s="14"/>
+      <c r="W84" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
-      <c r="AA84" s="14"/>
+      <c r="AA84" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
-      <c r="AD84" s="14"/>
+      <c r="AD84" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="AE84" s="15"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="15"/>
